--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H2">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N2">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="O2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q2">
-        <v>1.242158149662802</v>
+        <v>0.2024497108223333</v>
       </c>
       <c r="R2">
-        <v>1.242158149662802</v>
+        <v>1.822047397401</v>
       </c>
       <c r="S2">
-        <v>0.2187114993402867</v>
+        <v>0.02242472044962042</v>
       </c>
       <c r="T2">
-        <v>0.2187114993402867</v>
+        <v>0.02242472044962042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H3">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N3">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="P3">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="Q3">
-        <v>4.02268177796368</v>
+        <v>0.6422869830813333</v>
       </c>
       <c r="R3">
-        <v>4.02268177796368</v>
+        <v>5.780582847732</v>
       </c>
       <c r="S3">
-        <v>0.7082888465257989</v>
+        <v>0.07114411764543799</v>
       </c>
       <c r="T3">
-        <v>0.7082888465257989</v>
+        <v>0.07114411764543797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,495 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.072919</v>
+      </c>
+      <c r="H4">
+        <v>0.218757</v>
+      </c>
+      <c r="I4">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="J4">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.003041</v>
+      </c>
+      <c r="N4">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P4">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q4">
+        <v>0.000221746679</v>
+      </c>
+      <c r="R4">
+        <v>0.001995720111</v>
+      </c>
+      <c r="S4">
+        <v>2.456218518173433E-05</v>
+      </c>
+      <c r="T4">
+        <v>2.456218518173432E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.072919</v>
+      </c>
+      <c r="H5">
+        <v>0.218757</v>
+      </c>
+      <c r="I5">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="J5">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.003928</v>
+      </c>
+      <c r="N5">
+        <v>0.011784</v>
+      </c>
+      <c r="O5">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P5">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q5">
+        <v>0.000286425832</v>
+      </c>
+      <c r="R5">
+        <v>0.002577832488</v>
+      </c>
+      <c r="S5">
+        <v>3.172649240179298E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.172649240179297E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.072919</v>
+      </c>
+      <c r="H6">
+        <v>0.218757</v>
+      </c>
+      <c r="I6">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="J6">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N6">
+        <v>2.97632</v>
+      </c>
+      <c r="O6">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P6">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q6">
+        <v>0.07234342602666667</v>
+      </c>
+      <c r="R6">
+        <v>0.6510908342400001</v>
+      </c>
+      <c r="S6">
+        <v>0.008013254740776009</v>
+      </c>
+      <c r="T6">
+        <v>0.008013254740776007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.93355</v>
+      </c>
+      <c r="I7">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J7">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.776364333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.329093</v>
+      </c>
+      <c r="O7">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="P7">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="Q7">
+        <v>1.789413085572222</v>
+      </c>
+      <c r="R7">
+        <v>16.10471777015</v>
+      </c>
+      <c r="S7">
+        <v>0.1982076835272177</v>
+      </c>
+      <c r="T7">
+        <v>0.1982076835272177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.457775918943849</v>
-      </c>
-      <c r="H4">
-        <v>0.457775918943849</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.905676574132371</v>
-      </c>
-      <c r="N4">
-        <v>0.905676574132371</v>
-      </c>
-      <c r="O4">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="P4">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="Q4">
-        <v>0.4145969259893632</v>
-      </c>
-      <c r="R4">
-        <v>0.4145969259893632</v>
-      </c>
-      <c r="S4">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="T4">
-        <v>0.07299965413391428</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.93355</v>
+      </c>
+      <c r="I8">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J8">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N8">
+        <v>26.424676</v>
+      </c>
+      <c r="O8">
+        <v>0.6999729490580858</v>
+      </c>
+      <c r="P8">
+        <v>0.6999729490580857</v>
+      </c>
+      <c r="Q8">
+        <v>5.677048031088888</v>
+      </c>
+      <c r="R8">
+        <v>51.09343227979999</v>
+      </c>
+      <c r="S8">
+        <v>0.6288288314126479</v>
+      </c>
+      <c r="T8">
+        <v>0.6288288314126477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.93355</v>
+      </c>
+      <c r="I9">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J9">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.003041</v>
+      </c>
+      <c r="N9">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P9">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q9">
+        <v>0.001959975183333333</v>
+      </c>
+      <c r="R9">
+        <v>0.01763977665</v>
+      </c>
+      <c r="S9">
+        <v>0.000217100312941494</v>
+      </c>
+      <c r="T9">
+        <v>0.000217100312941494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.93355</v>
+      </c>
+      <c r="I10">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J10">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003928</v>
+      </c>
+      <c r="N10">
+        <v>0.011784</v>
+      </c>
+      <c r="O10">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P10">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q10">
+        <v>0.002531661466666666</v>
+      </c>
+      <c r="R10">
+        <v>0.0227849532</v>
+      </c>
+      <c r="S10">
+        <v>0.0002804242121782929</v>
+      </c>
+      <c r="T10">
+        <v>0.0002804242121782928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.93355</v>
+      </c>
+      <c r="I11">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J11">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.97632</v>
+      </c>
+      <c r="O11">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P11">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q11">
+        <v>0.6394292817777778</v>
+      </c>
+      <c r="R11">
+        <v>5.754863536</v>
+      </c>
+      <c r="S11">
+        <v>0.0708275790215968</v>
+      </c>
+      <c r="T11">
+        <v>0.07082757902159678</v>
       </c>
     </row>
   </sheetData>
